--- a/The game is liar/Assets/Files/Game_Weapons.xlsx
+++ b/The game is liar/Assets/Files/Game_Weapons.xlsx
@@ -163,15 +163,9 @@
     <t>Valo</t>
   </si>
   <si>
-    <t>revolver</t>
-  </si>
-  <si>
     <t>LazerBoom</t>
   </si>
   <si>
-    <t>laser gun</t>
-  </si>
-  <si>
     <t>Vorxal</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Gozedra</t>
+  </si>
+  <si>
+    <t>revolver or magnum</t>
+  </si>
+  <si>
+    <t>laser gun is very cool</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
         <v>3.6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
@@ -812,7 +812,7 @@
         <v>12.5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1">
         <v>25</v>
@@ -856,7 +856,7 @@
         <v>11.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>30</v>
@@ -900,7 +900,7 @@
         <v>8.4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1">
         <v>25</v>
@@ -988,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1">
         <v>30</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1">
         <v>25</v>
@@ -1100,7 +1100,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -1144,12 +1144,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
         <v>45</v>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1">
         <v>60</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>56</v>
@@ -1208,7 +1208,7 @@
         <v>13.4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>80</v>
@@ -1304,7 +1304,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1">
         <v>16</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -1460,47 +1460,47 @@
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
